--- a/原理图仿真.xlsx
+++ b/原理图仿真.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jikai\Documents\GitHub\Electronic-System-Design-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45D1CC-8BF8-4B33-9FA8-63FAFD31A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9CB7E-564F-4F6D-B991-67F4EFA39AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2736" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,89 +25,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>原理图仿真记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序设计思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现象及描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED驱动模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示灯延时一段时间亮灭切换一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC12初始化设置完成后，周期改变PC12输出，使指示灯亮灭交替进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>数码管指示灯亮灭交替</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>原理图仿真记录表</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>程序设计思路</t>
+  </si>
+  <si>
+    <t>现象及描述</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>指示灯延时一段时间亮灭切换一次</t>
+  </si>
+  <si>
+    <t>PC12初始化设置完成后，周期改变PC12输出，使指示灯亮灭交替进行</t>
+  </si>
+  <si>
     <t>LED驱动电路符合要求</t>
+  </si>
+  <si>
+    <t>数码显示</t>
+  </si>
+  <si>
+    <t>定时器4</t>
+  </si>
+  <si>
+    <t>UART发送</t>
+  </si>
+  <si>
+    <t>PWM控制</t>
+  </si>
+  <si>
+    <t>ADC测量</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>UART波特率检测</t>
+  </si>
+  <si>
+    <t>UART接收</t>
+  </si>
+  <si>
+    <t>UART中断接收</t>
+  </si>
+  <si>
+    <t>按钮接口</t>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动模块</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数码显示</t>
+    <t>随着指示灯的切换数码管显示数值加1，9加1后为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定时器4</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化数码管驱动电路及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PC12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，周期改变数码管显示数值及指示灯亮灭切换</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UART发送</t>
+    <t>数码管显示数值随指示灯亮灭交替而改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWM控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART波特率检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART中断接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮接口</t>
+    <t>数码显示符合要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +167,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -147,14 +226,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,6 +374,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1223010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D0119D-707D-4BD2-BABE-780D1AF119CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="676275"/>
+          <a:ext cx="895350" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>978675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>283350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1870215</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1174890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147C6FAC-DDDE-41FA-8263-46FFD38533A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5426850" y="702450"/>
+          <a:ext cx="895350" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1217295</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>398120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1179195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903CEC16-5D7E-4796-BC81-629C72E73567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="2105000"/>
+          <a:ext cx="470535" cy="781075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628155</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1127942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1180604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6589B1C-D337-4724-93C8-2D37051BC55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5078235" y="2106929"/>
+          <a:ext cx="495977" cy="780555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25681</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>413384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552923</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1172489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C8E07D-5EEA-4671-A229-BE162297E740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4475761" y="2120264"/>
+          <a:ext cx="523432" cy="757200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,7 +897,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,98 +909,161 @@
     <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>